--- a/va_facility_data_2025-02-20/Bruce B. Downs Boulevard VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bruce%20B.%20Downs%20Boulevard%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Bruce B. Downs Boulevard VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bruce%20B.%20Downs%20Boulevard%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd0254a1d2763488c9339312138e040a3"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="Rc7e6277bd79b456e9ea3ae24e7e33223"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Re73322e8fe9e4d8382bb095bebda36e3"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="R20cb2a173167423b831819ce24284f9f"/>
   </x:sheets>
 </x:workbook>
 </file>
